--- a/cours/03 - Databases/02 Exercice Videos/00-videos-Matrice-dépendances-fonctionnelles.xlsx
+++ b/cours/03 - Databases/02 Exercice Videos/00-videos-Matrice-dépendances-fonctionnelles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdevoldere\Documents\GitHub\DWWM_2409\03 - Databases\02 Exercice Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13430BA1-B907-45B6-A54B-5E0D3559D174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D2198A-B19F-4B3F-9100-AD6E2BCC200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>Toto</t>
   </si>
   <si>
-    <t>Tata</t>
-  </si>
-  <si>
     <t>Titi</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Identity</t>
+  </si>
+  <si>
+    <t>Riri</t>
   </si>
 </sst>
 </file>
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A6B7E6B-ECF8-4ADF-81D7-9610E7F7A832}" name="Tableau2" displayName="Tableau2" ref="G15:I19" totalsRowShown="0">
-  <autoFilter ref="G15:I19" xr:uid="{5A6B7E6B-ECF8-4ADF-81D7-9610E7F7A832}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A6B7E6B-ECF8-4ADF-81D7-9610E7F7A832}" name="Tableau2" displayName="Tableau2" ref="G14:I18" totalsRowShown="0">
+  <autoFilter ref="G14:I18" xr:uid="{5A6B7E6B-ECF8-4ADF-81D7-9610E7F7A832}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{37D76F6E-53B9-4EA2-8C3C-865728EA80D2}" name="film_id"/>
     <tableColumn id="2" xr3:uid="{4E2B8B74-40E1-40D9-A714-D8B09F4EBA23}" name="film_titre"/>
@@ -744,10 +744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99571033-A785-4D9F-9E72-363135F46313}">
-  <dimension ref="D8:I19"/>
+  <dimension ref="D8:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -785,64 +785,64 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
         <v>26</v>
       </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>27</v>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
-        <v>22</v>
+      <c r="I15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>31</v>
       </c>
       <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19">
         <v>1</v>
       </c>
     </row>

--- a/cours/03 - Databases/02 Exercice Videos/00-videos-Matrice-dépendances-fonctionnelles.xlsx
+++ b/cours/03 - Databases/02 Exercice Videos/00-videos-Matrice-dépendances-fonctionnelles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdevoldere\Documents\GitHub\DWWM_2409\03 - Databases\02 Exercice Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D2198A-B19F-4B3F-9100-AD6E2BCC200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C5D720-CB4F-46AE-B3E5-1B46150A1D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Client_id</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Riri</t>
+  </si>
+  <si>
+    <t>acteur_id</t>
   </si>
 </sst>
 </file>
@@ -212,6 +215,17 @@
     <tableColumn id="1" xr3:uid="{37D76F6E-53B9-4EA2-8C3C-865728EA80D2}" name="film_id"/>
     <tableColumn id="2" xr3:uid="{4E2B8B74-40E1-40D9-A714-D8B09F4EBA23}" name="film_titre"/>
     <tableColumn id="3" xr3:uid="{1F9EB1DD-7E0D-43E8-8EE6-A1DDFB50A97A}" name="realisateur_id"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CE78F43-73CC-481B-B12A-C267A2089134}" name="Tableau3" displayName="Tableau3" ref="H4:I9" totalsRowShown="0">
+  <autoFilter ref="H4:I9" xr:uid="{0CE78F43-73CC-481B-B12A-C267A2089134}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{09493B72-1279-4576-8D69-E7CB157BD72B}" name="film_id"/>
+    <tableColumn id="2" xr3:uid="{4E6FD789-896C-4A70-A4B9-FBE33CA45F57}" name="acteur_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -744,10 +758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99571033-A785-4D9F-9E72-363135F46313}">
-  <dimension ref="D8:I18"/>
+  <dimension ref="D4:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +773,38 @@
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>22</v>
@@ -766,6 +812,12 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9">
@@ -773,6 +825,12 @@
       </c>
       <c r="E9" t="s">
         <v>24</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
@@ -810,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
@@ -848,9 +906,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>